--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>978a9171-8390-4d23-b51f-f57bf86edd2b</t>
+    <t>ff93ed32-7934-47ba-bb61-6b8f0a8da834</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>ff93ed32-7934-47ba-bb61-6b8f0a8da834</t>
+    <t>ad5c3fda-1b38-4f22-9eff-0b4f8f54014c</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>ad5c3fda-1b38-4f22-9eff-0b4f8f54014c</t>
+    <t>5ef8160e-73c4-4742-a39c-bcb97dc540ea</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>5ef8160e-73c4-4742-a39c-bcb97dc540ea</t>
+    <t>79dbb578-2ef6-44e4-acde-496decae24cf</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>79dbb578-2ef6-44e4-acde-496decae24cf</t>
+    <t>76adb88e-70ee-4db2-bbe1-833a466f331f</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>76adb88e-70ee-4db2-bbe1-833a466f331f</t>
+    <t>b3d7e187-444e-43b3-bb8b-f366c174a80e</t>
   </si>
   <si>
     <t>ABAETÉ</t>
